--- a/CATATUMBO/Percepción PDET en el Catatumbo(1-55).xlsx
+++ b/CATATUMBO/Percepción PDET en el Catatumbo(1-55).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\OneDrive\Documentos\code\CATATUMBO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B28B73-5B0E-4490-A5FF-97E190325578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5036B8FF-14F9-4E74-9E37-D54A5500B882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1712,7 +1712,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -1745,7 +1745,7 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -1838,7 +1838,7 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm:ss"/>
+      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1847,10 +1847,10 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm:ss"/>
+      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm:ss"/>
+      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -2210,8 +2210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AC1" sqref="AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2219,7 +2219,8 @@
     <col min="1" max="13" width="20" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="78.140625" customWidth="1"/>
     <col min="15" max="15" width="63.28515625" customWidth="1"/>
-    <col min="16" max="34" width="20" bestFit="1" customWidth="1"/>
+    <col min="16" max="33" width="20" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="43.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
